--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-81778.23566942009</v>
+        <v>-83665.81718582178</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>208.8475654886675</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>80.95330894034875</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>110.0115294480439</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>291.0602228052459</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>241.7627700121621</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>74.53436060286468</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>112.200859218067</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>362.4006936231289</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>157.2029797327297</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>14.5268783873314</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>110.5201371783735</v>
       </c>
     </row>
     <row r="11">
@@ -1421,7 +1421,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1531,13 +1531,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>110.9763618019592</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.562624396424889</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>100.4879364842346</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5390319077295</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1859,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>115.5269768002174</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>60.81643793528877</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710091</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.70765698000663</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>166.3563617910969</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,16 +2533,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>149.0799667719513</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>276.4348282950959</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750033</v>
+        <v>84.86646606374086</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,22 +2950,22 @@
         <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
         <v>55.21598883571492</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523573</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>231.0340957700203</v>
@@ -3013,10 +3013,10 @@
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>80.41992568661983</v>
+        <v>28.62173761767808</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857101</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373699</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463138</v>
+        <v>42.28735533463068</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463133</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1782.111371249201</v>
+        <v>1452.115530175776</v>
       </c>
       <c r="C2" t="n">
-        <v>1413.148854308789</v>
+        <v>1452.115530175776</v>
       </c>
       <c r="D2" t="n">
-        <v>1413.148854308789</v>
+        <v>1093.849831569025</v>
       </c>
       <c r="E2" t="n">
-        <v>1027.360601710545</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>616.3746969209374</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.111371249201</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X2" t="n">
-        <v>1782.111371249201</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="Y2" t="n">
-        <v>1782.111371249201</v>
+        <v>1838.715370239897</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,10 +4413,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>571.3497027553424</v>
+        <v>617.0062271882081</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>617.0062271882081</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.341643278937</v>
+        <v>1562.681172365833</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1562.681172365833</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1562.681172365833</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1176.892919767589</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>765.9070149779816</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>347.9432068761685</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>1749.341643278937</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>1749.341643278937</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X5" t="n">
-        <v>1749.341643278937</v>
+        <v>1562.681172365833</v>
       </c>
       <c r="Y5" t="n">
-        <v>1749.341643278937</v>
+        <v>1562.681172365833</v>
       </c>
     </row>
     <row r="6">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>279.3468541648867</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.3468541648867</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D8" t="n">
-        <v>819.715945170047</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718028</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2108.418929351565</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>2108.418929351565</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>2108.418929351565</v>
       </c>
     </row>
     <row r="9">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>361.80799380017</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>361.80799380017</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4996,16 +4996,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>361.80799380017</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,16 +5024,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>394.2236783705318</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>394.2236783705318</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227919</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>620.242624916905</v>
+        <v>955.1031435655734</v>
       </c>
       <c r="W13" t="n">
-        <v>330.8254548799444</v>
+        <v>843.0058084120793</v>
       </c>
       <c r="X13" t="n">
-        <v>102.8359039819271</v>
+        <v>615.016257514062</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>394.2236783705318</v>
       </c>
     </row>
     <row r="14">
@@ -5267,34 +5267,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>665.6859735286132</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="C16" t="n">
-        <v>496.7497906007063</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D16" t="n">
-        <v>346.6331511883706</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E16" t="n">
-        <v>198.7200576059774</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>198.7200576059774</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>198.7200576059774</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H16" t="n">
-        <v>198.7200576059774</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>966.1645591486849</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>966.1645591486849</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>966.1645591486849</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>966.1645591486849</v>
       </c>
       <c r="X16" t="n">
-        <v>665.6859735286132</v>
+        <v>966.1645591486849</v>
       </c>
       <c r="Y16" t="n">
-        <v>665.6859735286132</v>
+        <v>745.3719800051548</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155906</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805489</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014294</v>
@@ -5546,19 +5546,19 @@
         <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
         <v>2051.878056918008</v>
@@ -5628,7 +5628,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
         <v>1571.258395043133</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>213.9110074201014</v>
+        <v>695.9798268587604</v>
       </c>
       <c r="C19" t="n">
-        <v>213.9110074201014</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="D19" t="n">
-        <v>213.9110074201014</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E19" t="n">
-        <v>213.9110074201014</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F19" t="n">
-        <v>213.9110074201014</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G19" t="n">
-        <v>213.9110074201014</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609662</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550793</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181188</v>
+        <v>1326.410421730548</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201014</v>
+        <v>1098.42087083253</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.9110074201014</v>
+        <v>877.6282916890001</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,67 +5735,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>247.6350999123426</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="C22" t="n">
-        <v>247.6350999123426</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1431.534798860927</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1231.614788776479</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1007.829373565985</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>718.7007347795429</v>
+        <v>1130.959531391539</v>
       </c>
       <c r="V22" t="n">
-        <v>718.7007347795429</v>
+        <v>876.2750431856521</v>
       </c>
       <c r="W22" t="n">
-        <v>429.2835647425823</v>
+        <v>586.8578731486914</v>
       </c>
       <c r="X22" t="n">
-        <v>429.2835647425823</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="Y22" t="n">
-        <v>429.2835647425823</v>
+        <v>358.8683222506741</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241959</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>986.002216560967</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018334</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X25" t="n">
-        <v>318.009670603816</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028589</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,7 +6242,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903952</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903952</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903952</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903952</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903952</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903952</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6385,10 +6385,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1413.192567463215</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1124.063928676773</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>869.3794404708859</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>579.9622704339254</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>579.9622704339254</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903952</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,19 +6461,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>1196.088769018224</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M30" t="n">
-        <v>1503.408902298185</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1833.271529962218</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215252</v>
+        <v>750.8748194215257</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749891</v>
+        <v>637.6995017749896</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440242</v>
+        <v>543.3437276440246</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430019</v>
+        <v>451.1914993430022</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264623</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="G31" t="n">
         <v>247.6479607276535</v>
@@ -6616,22 +6616,22 @@
         <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818803</v>
+        <v>1503.284906591123</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894287</v>
+        <v>1304.361283666607</v>
       </c>
       <c r="W31" t="n">
-        <v>957.994667138697</v>
+        <v>1070.704978911017</v>
       </c>
       <c r="X31" t="n">
-        <v>876.7624189703942</v>
+        <v>1041.794132832554</v>
       </c>
       <c r="Y31" t="n">
-        <v>876.7624189703942</v>
+        <v>876.7624189703946</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823798</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108323</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982966</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6914,28 +6914,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7151,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D40" t="n">
         <v>478.0475988506728</v>
@@ -7327,7 +7327,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7400,10 +7400,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028562</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229661</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506714</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504507</v>
@@ -7594,10 +7594,10 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045197</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010305</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
         <v>478.0475988506726</v>
@@ -7795,7 +7795,7 @@
         <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298479</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,10 +9249,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229581</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165113</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208057</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208054</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>124.3400780863232</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>277.6717966208069</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>175.5466365346318</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.0220289556699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>9.9313089800374</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>2.008529150659706</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>33.38685156731873</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>225.7065604013022</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>43.25669542378614</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>119.8809906074804</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24412,7 +24412,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>103.0576765518767</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>10.08817004149506</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338594</v>
+        <v>136.6810949946484</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523572</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>90.08647307386023</v>
+        <v>141.884661142802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>6.465938895416912e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287364.6194524996</v>
+        <v>287364.6194524995</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="D2" t="n">
         <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
-        <v>273720.3418163963</v>
+        <v>273720.3418163964</v>
       </c>
       <c r="F2" t="n">
         <v>273720.3418163963</v>
@@ -26329,25 +26329,25 @@
         <v>273720.3418163962</v>
       </c>
       <c r="H2" t="n">
-        <v>273720.3418163962</v>
+        <v>273720.3418163963</v>
       </c>
       <c r="I2" t="n">
-        <v>273720.3418163963</v>
+        <v>273720.3418163964</v>
       </c>
       <c r="J2" t="n">
         <v>273720.3418163963</v>
       </c>
       <c r="K2" t="n">
-        <v>284775.4961416893</v>
+        <v>284775.4961416892</v>
       </c>
       <c r="L2" t="n">
+        <v>287364.6194524993</v>
+      </c>
+      <c r="M2" t="n">
         <v>287364.6194524989</v>
       </c>
-      <c r="M2" t="n">
-        <v>287364.6194524992</v>
-      </c>
       <c r="N2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524989</v>
       </c>
       <c r="O2" t="n">
         <v>287364.6194524991</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,34 +26378,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.611524223539163e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925925</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086683</v>
+        <v>10342.90680086688</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284564</v>
       </c>
     </row>
     <row r="4">
@@ -26424,31 +26424,31 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687065</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687064</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106727</v>
+        <v>40339.23010106724</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
         <v>44593.39482819119</v>
@@ -26457,7 +26457,7 @@
         <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
     </row>
     <row r="5">
@@ -26479,34 +26479,34 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871667</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-551095.2056119789</v>
+        <v>-551095.2056119788</v>
       </c>
       <c r="C6" t="n">
+        <v>38872.67360256557</v>
+      </c>
+      <c r="D6" t="n">
         <v>38872.67360256545</v>
       </c>
-      <c r="D6" t="n">
-        <v>38872.67360256542</v>
-      </c>
       <c r="E6" t="n">
-        <v>-365601.6281960872</v>
+        <v>-365699.0873220593</v>
       </c>
       <c r="F6" t="n">
-        <v>159558.4082808089</v>
+        <v>159460.9491548368</v>
       </c>
       <c r="G6" t="n">
-        <v>159558.4082808087</v>
+        <v>159460.9491548367</v>
       </c>
       <c r="H6" t="n">
-        <v>159558.4082808087</v>
+        <v>159460.9491548368</v>
       </c>
       <c r="I6" t="n">
-        <v>159558.4082808089</v>
+        <v>159460.9491548369</v>
       </c>
       <c r="J6" t="n">
-        <v>-16864.81091178345</v>
+        <v>-16962.27003775613</v>
       </c>
       <c r="K6" t="n">
-        <v>103645.4522075536</v>
+        <v>103626.9584696192</v>
       </c>
       <c r="L6" t="n">
-        <v>134713.2120034155</v>
+        <v>134713.2120034158</v>
       </c>
       <c r="M6" t="n">
-        <v>10255.10357044556</v>
+        <v>10255.10357044518</v>
       </c>
       <c r="N6" t="n">
+        <v>145056.1188042823</v>
+      </c>
+      <c r="O6" t="n">
         <v>145056.1188042826</v>
-      </c>
-      <c r="O6" t="n">
-        <v>145056.1188042825</v>
       </c>
       <c r="P6" t="n">
         <v>100893.513501437</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26747,31 +26747,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541006</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26802,13 +26802,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108353</v>
+        <v>12.9286335010836</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.287272754555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>173.0828045835943</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>332.8308610804463</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>56.93405031343778</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>176.2703447939339</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>32.86254995911122</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>85.98948845797281</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>92.71246049576315</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>139.936784105761</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>192.0379889846834</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>152.7829238717195</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>108.0645161737212</v>
       </c>
     </row>
     <row r="11">
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-7.058172402644652e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,37 +32473,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>296.2227415328944</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970350042</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145243</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523302</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>526.9295015768312</v>
+        <v>483.6693559063409</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412259</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37002,13 +37002,13 @@
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.42895660043182</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,10 +37473,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
